--- a/biology/Botanique/Hyde_Park/Hyde_Park.xlsx
+++ b/biology/Botanique/Hyde_Park/Hyde_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hyde Park est le plus grand parc du centre de Londres, en Angleterre, ainsi que l'un des neuf parcs royaux de la capitale, avec une longueur de plus de deux kilomètres et près d’un kilomètre de largeur.
@@ -513,9 +525,11 @@
           <t>Histoire et conception</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus ancienne partie du parc appartenait au manoir d'Ebury et avait une superficie d'un « hide », ancienne unité de surface anglaise et variant selon la construction du sol de vingt-quatre à quarante-neuf hectares, ce qui donna le nom du parc[2]. En 1536, dans le contexte de la dissolution des monastères, Henri VIII reprit le terrain aux abbés de l'abbaye de Westminster.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne partie du parc appartenait au manoir d'Ebury et avait une superficie d'un « hide », ancienne unité de surface anglaise et variant selon la construction du sol de vingt-quatre à quarante-neuf hectares, ce qui donna le nom du parc. En 1536, dans le contexte de la dissolution des monastères, Henri VIII reprit le terrain aux abbés de l'abbaye de Westminster.
 Une grande partie de la conception du parc est due à l'architecte Decimus Burton dans les années 1820. Alors que les jardins de Kensington sont en grande partie plats, Hyde Park est légèrement vallonné.   
 Hyde Park fut le site original du Crystal Palace, dessiné par Joseph Paxton pour la Grande Exposition de 1851[réf. souhaitée].
 Le 20 juillet 1982, un attentat à la bombe commis par l’IRA provisoire cause la mort de quatre soldats de la Household Cavalry.
@@ -548,7 +562,9 @@
           <t>L'entrée principale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Située au sud-est du parc, elle est due à Decimus Burton et fut construite en 1824-1825. Elle se présente sous la forme de trois passages voûtés réunis par une colonnade, le tout d'une longueur d'environ 32,50 mètres. Le passage central présente un avant-corps particulier : il est formé d'un portique supporté par quatre colonnes, et est surmonté d'une frise représentant une procession triomphale de la marine militaire, œuvre de Henning Jr (fils du sculpteur Henning connu pour ses copies des frises du Parthénon). Les deux colonnes extérieures de ce portique ont des chapiteaux sculptés de telle manière qu'ils présentent toujours au regard deux faces complètes,
 Les grilles fermant les passages, œuvres de Bramah, sont en fer et bronze, décorées d'un ornement de chèvrefeuille grec.
@@ -580,7 +596,9 @@
           <t>Le Speakers' Corner</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyde Park est aussi très connu pour son Speakers' Corner (« coin des orateurs »). Ce dernier est situé dans la partie nord-est du parc, près de Marble Arch. Fondé en 1872, c'est un espace de libre expression où tout un chacun peut prendre la parole librement devant l'assistance du moment[réf. souhaitée].
 </t>
@@ -611,7 +629,9 @@
           <t>Autres points d'intérêt</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’extrémité sud-est du parc, face à l'entrée principale et de Apsley House (devenue le Wellington Museum), la résidence londonienne de Arthur Wellesley duc de Wellington, se trouve Hyde Park Corner, dans lequel se dresse Wellington Arch, un arc de triomphe érigé en mémoire du vainqueur de la bataille de Waterloo.
 La Serpentine Gallery est située sur un emplacement inattendu pour une galerie d’art contemporain : beaucoup de lumière naturelle et de la verdure tout autour. Cette partie du parc fait déjà partie des jardins de Kensington.
@@ -645,9 +665,11 @@
           <t>Hyde park comme sujet artistique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant son premier séjour à Londres, de 1870 à 1871, Claude Monet en fait une représentation dans un tableau qui est aujourd'hui aux États-Unis[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant son premier séjour à Londres, de 1870 à 1871, Claude Monet en fait une représentation dans un tableau qui est aujourd'hui aux États-Unis.
 </t>
         </is>
       </c>
